--- a/Monthly/ACF - PACF/First Difference/NIKKEI residuals - values.xlsx
+++ b/Monthly/ACF - PACF/First Difference/NIKKEI residuals - values.xlsx
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.0103447608296896</v>
+        <v>0.01150939518317572</v>
       </c>
       <c r="C3">
-        <v>-0.01044235291298862</v>
+        <v>0.01161797438301697</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0284244109678612</v>
+        <v>0.01122121185411429</v>
       </c>
       <c r="C4">
-        <v>0.02885993255122943</v>
+        <v>0.01130149733992168</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.01611168829068345</v>
+        <v>0.04391507767460673</v>
       </c>
       <c r="C5">
-        <v>-0.01599640700948518</v>
+        <v>0.04493101137696913</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.03303020357983943</v>
+        <v>0.04329141903284109</v>
       </c>
       <c r="C6">
-        <v>-0.03551420000139034</v>
+        <v>0.04393146042376187</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05625810077359702</v>
+        <v>-0.006543959681372192</v>
       </c>
       <c r="C7">
-        <v>0.05940525933885909</v>
+        <v>-0.008791260403720847</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07798979536282044</v>
+        <v>0.04289640854571407</v>
       </c>
       <c r="C8">
-        <v>0.08600143586536164</v>
+        <v>0.04279769634509183</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1703009917613115</v>
+        <v>0.04119915064145221</v>
       </c>
       <c r="C9">
-        <v>0.1817174225417422</v>
+        <v>0.03966478249475016</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.04593968205050315</v>
+        <v>-0.1544240335274195</v>
       </c>
       <c r="C10">
-        <v>-0.04889585754715698</v>
+        <v>-0.1711047984344957</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.1048020400776572</v>
+        <v>-0.1626882879063747</v>
       </c>
       <c r="C11">
-        <v>-0.1261236859022042</v>
+        <v>-0.18445018777717</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.03239869995482531</v>
+        <v>0.01906255332912772</v>
       </c>
       <c r="C12">
-        <v>0.04298224743033768</v>
+        <v>0.01890401827637266</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.086556467798668</v>
+        <v>-0.0355790652588541</v>
       </c>
       <c r="C13">
-        <v>-0.08940862869293706</v>
+        <v>-0.02284373345714091</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.07374077113480915</v>
+        <v>-0.083042612849262</v>
       </c>
       <c r="C14">
-        <v>-0.1319205320322208</v>
+        <v>-0.07019974667039404</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.02402948392538469</v>
+        <v>-0.03758289320397576</v>
       </c>
       <c r="C15">
-        <v>-0.06251028741047966</v>
+        <v>-0.03538122973659862</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.03946434463323482</v>
+        <v>-0.01697752977510409</v>
       </c>
       <c r="C16">
-        <v>0.04477157917193811</v>
+        <v>-0.002055231185851243</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.05398556266582664</v>
+        <v>-0.04046868583259367</v>
       </c>
       <c r="C17">
-        <v>0.1059815344534404</v>
+        <v>-0.00503273304481726</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.05595199450265001</v>
+        <v>-0.1097365257111913</v>
       </c>
       <c r="C18">
-        <v>-0.02897782411062272</v>
+        <v>-0.1447567897597989</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1236138990892055</v>
+        <v>0.1038714985093079</v>
       </c>
       <c r="C19">
-        <v>0.1561824754430481</v>
+        <v>0.07290589689304582</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.06085497142498365</v>
+        <v>-0.018558820626444</v>
       </c>
       <c r="C20">
-        <v>-0.0036703143728483</v>
+        <v>-0.0277892292622731</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.04195934410612034</v>
+        <v>0.006774496728495031</v>
       </c>
       <c r="C21">
-        <v>-0.0249228191567796</v>
+        <v>0.02343598662118414</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.0230565289647583</v>
+        <v>0.06382454753078644</v>
       </c>
       <c r="C22">
-        <v>-0.01239003030753792</v>
+        <v>0.05259774667767989</v>
       </c>
     </row>
   </sheetData>
